--- a/output/1Y_P52_1VAL-D.xlsx
+++ b/output/1Y_P52_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G2" s="1">
-        <v>500.8314</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.164000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>19.9668</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.164000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E3" s="1">
+        <v>500.8314</v>
+      </c>
       <c r="F3" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G3" s="1">
-        <v>1048.9538</v>
-      </c>
       <c r="H3" s="1">
-        <v>19037.9868</v>
+        <v>9089.839099999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>19.0666</v>
+        <v>9089.839099999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>19.9668</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19037.9868</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0456</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E4" s="1">
+        <v>1048.9538</v>
+      </c>
       <c r="F4" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G4" s="1">
-        <v>1747.1462</v>
-      </c>
       <c r="H4" s="1">
-        <v>24894.0374</v>
+        <v>14945.9131</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1709</v>
+        <v>14945.9131</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>19.0666</v>
+      </c>
+      <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="1">
-        <v>1888.1168</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8111.8832</v>
+        <v>901.4965</v>
       </c>
       <c r="O4" s="1">
-        <v>1888.1168</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>26782.1543</v>
+        <v>-9098.503500000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.07770000000000001</v>
+        <v>-0.2171</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E5" s="1">
+        <v>1747.1462</v>
+      </c>
       <c r="F5" s="1">
-        <v>648.5166</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2395.6627</v>
+        <v>641.5533</v>
       </c>
       <c r="H5" s="1">
-        <v>37520.1509</v>
+        <v>27363.2791</v>
       </c>
       <c r="I5" s="1">
-        <v>40209.7908</v>
+        <v>901.4965</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7844</v>
+        <v>28264.7756</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30100.1663</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.2282</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10209.7908</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1678.3261</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39198.477</v>
+        <v>-10100.1663</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.06569999999999999</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E6" s="1">
+        <v>2388.6995</v>
+      </c>
       <c r="F6" s="1">
-        <v>630.4909</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3026.1536</v>
+        <v>623.7212</v>
       </c>
       <c r="H6" s="1">
-        <v>48749.5187</v>
+        <v>38480.5154</v>
       </c>
       <c r="I6" s="1">
-        <v>50419.5815</v>
+        <v>801.3302</v>
       </c>
       <c r="J6" s="1">
-        <v>16.6613</v>
+        <v>39281.8456</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40200.3326</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.8294</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10209.7908</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1468.5353</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50218.054</v>
+        <v>-10100.1663</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0207</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E7" s="1">
+        <v>3012.4206</v>
+      </c>
       <c r="F7" s="1">
-        <v>670.7348</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3696.8884</v>
+        <v>663.533</v>
       </c>
       <c r="H7" s="1">
-        <v>55981.611</v>
+        <v>45616.7845</v>
       </c>
       <c r="I7" s="1">
-        <v>60629.3723</v>
+        <v>701.1639</v>
       </c>
       <c r="J7" s="1">
-        <v>16.4001</v>
+        <v>46317.9485</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50300.4988</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.6977</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10209.7908</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1258.7445</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>57240.3555</v>
+        <v>-10100.1663</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0494</v>
+        <v>-0.0601</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E8" s="1">
+        <v>3675.9536</v>
+      </c>
       <c r="F8" s="1">
-        <v>725.6322</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4422.5206</v>
+        <v>717.841</v>
       </c>
       <c r="H8" s="1">
-        <v>61903.3478</v>
+        <v>51453.4256</v>
       </c>
       <c r="I8" s="1">
-        <v>70839.163</v>
+        <v>600.9977</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0178</v>
+        <v>52054.4233</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60400.6651</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4313</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10209.7908</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1048.9538</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>62952.3016</v>
+        <v>-10100.1663</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0638</v>
+        <v>-0.0757</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E9" s="1">
+        <v>4393.7946</v>
+      </c>
       <c r="F9" s="1">
-        <v>737.2968</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5159.8174</v>
+        <v>729.3803</v>
       </c>
       <c r="H9" s="1">
-        <v>71080.6124</v>
+        <v>60528.0358</v>
       </c>
       <c r="I9" s="1">
-        <v>81048.9538</v>
+        <v>500.8314</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7077</v>
+        <v>61028.8671</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70500.8314</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0455</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10209.7908</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>839.163</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>71919.7754</v>
+        <v>-10100.1663</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0142</v>
+        <v>-0.0165</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E10" s="1">
+        <v>5123.1749</v>
+      </c>
       <c r="F10" s="1">
-        <v>698.4158</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5858.2331</v>
+        <v>690.9167</v>
       </c>
       <c r="H10" s="1">
-        <v>85194.5272</v>
+        <v>74504.7954</v>
       </c>
       <c r="I10" s="1">
-        <v>91258.7445</v>
+        <v>400.6651</v>
       </c>
       <c r="J10" s="1">
-        <v>15.5779</v>
+        <v>74905.4605</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80600.99770000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.7326</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10209.7908</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>629.3723</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>85823.89939999999</v>
+        <v>-10100.1663</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0477</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E11" s="1">
+        <v>5814.0916</v>
+      </c>
       <c r="F11" s="1">
-        <v>670.0965</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6528.3296</v>
+        <v>662.9015000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>98951.8504</v>
+        <v>88125.93090000001</v>
       </c>
       <c r="I11" s="1">
-        <v>101468.5353</v>
+        <v>300.4988</v>
       </c>
       <c r="J11" s="1">
-        <v>15.5428</v>
+        <v>88426.42969999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90701.1639</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.6002</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10209.7908</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>419.5815</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>99371.4319</v>
+        <v>-10100.1663</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.037</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E12" s="1">
+        <v>6476.9931</v>
+      </c>
       <c r="F12" s="1">
-        <v>641.7337</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7170.0633</v>
+        <v>634.8433</v>
       </c>
       <c r="H12" s="1">
-        <v>113482.0261</v>
+        <v>102512.6656</v>
       </c>
       <c r="I12" s="1">
-        <v>111678.3261</v>
+        <v>200.3326</v>
       </c>
       <c r="J12" s="1">
-        <v>15.5756</v>
+        <v>102712.9982</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100801.3302</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.563</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10209.7908</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>209.7908</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113691.8169</v>
+        <v>-10100.1663</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0395</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E13" s="1">
+        <v>7111.8364</v>
+      </c>
       <c r="F13" s="1">
-        <v>663.3654</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7833.4287</v>
+        <v>656.2427</v>
       </c>
       <c r="H13" s="1">
-        <v>119938.4106</v>
+        <v>108890.0385</v>
       </c>
       <c r="I13" s="1">
-        <v>121888.1168</v>
+        <v>100.1663</v>
       </c>
       <c r="J13" s="1">
-        <v>15.56</v>
+        <v>108990.2048</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110901.4965</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.5939</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10209.7908</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>119938.4106</v>
+        <v>-10100.1663</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0303</v>
+        <v>-0.033</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E14" s="1">
+        <v>7768.0791</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7833.4287</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7111.8364</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124491.2364</v>
       </c>
       <c r="I14" s="1">
-        <v>121888.1168</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.56</v>
+        <v>124491.2364</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110901.4965</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.2766</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125538.5288</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125538.5288</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125538.5288</v>
+        <v>113974.2904</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0339</v>
+        <v>0.0462</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>19.9668</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>500.8314</v>
       </c>
       <c r="G2" s="1">
-        <v>500.8314</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.164000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>19.9668</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.164000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.2441</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>500.8314</v>
       </c>
       <c r="F3" s="1">
         <v>548.1224</v>
       </c>
       <c r="G3" s="1">
-        <v>1048.9538</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19037.9868</v>
+        <v>9089.839099999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>19.0666</v>
+        <v>9089.839099999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>19.9668</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19037.9868</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0456</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>14.3227</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1048.9538</v>
       </c>
       <c r="F4" s="1">
         <v>698.1924</v>
       </c>
       <c r="G4" s="1">
-        <v>1747.1462</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>24894.0374</v>
+        <v>14945.9131</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1709</v>
+        <v>14945.9131</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>19.0666</v>
+      </c>
+      <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="1">
-        <v>1888.1168</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8111.8832</v>
+        <v>901.4965</v>
       </c>
       <c r="O4" s="1">
-        <v>1888.1168</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>26782.1543</v>
+        <v>-9098.503500000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.07770000000000001</v>
+        <v>-0.2171</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.7433</v>
       </c>
       <c r="E5" s="1">
+        <v>1747.1462</v>
+      </c>
+      <c r="F5" s="1">
+        <v>692.4530999999999</v>
+      </c>
+      <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1">
-        <v>755.1223</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2502.2685</v>
-      </c>
       <c r="H5" s="1">
-        <v>39189.778</v>
+        <v>27363.2791</v>
       </c>
       <c r="I5" s="1">
-        <v>41888.1168</v>
+        <v>901.4965</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7401</v>
+        <v>28264.7756</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30901.4965</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6868</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11888.1168</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39189.778</v>
+        <v>-10901.4965</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0655</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.1934</v>
       </c>
       <c r="E6" s="1">
+        <v>2439.5992</v>
+      </c>
+      <c r="F6" s="1">
+        <v>617.5355</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>601.5095</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3103.7779</v>
-      </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>39300.48</v>
       </c>
       <c r="I6" s="1">
-        <v>51628.6001</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.6341</v>
+        <v>39300.48</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40901.4965</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7657</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-9740.483200000001</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>259.5168</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50259.5168</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0217</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.2218</v>
       </c>
       <c r="E7" s="1">
+        <v>3057.1348</v>
+      </c>
+      <c r="F7" s="1">
+        <v>656.9525</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>674.0015</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3777.7795</v>
-      </c>
       <c r="H7" s="1">
-        <v>57206.5367</v>
+        <v>46293.8863</v>
       </c>
       <c r="I7" s="1">
-        <v>61888.1168</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3821</v>
+        <v>46293.8863</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50901.4965</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.6501</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10259.5168</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>57206.5367</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0507</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>14.0702</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3714.0873</v>
       </c>
       <c r="F8" s="1">
         <v>710.722</v>
       </c>
       <c r="G8" s="1">
-        <v>4488.5014</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>62826.9009</v>
+        <v>51987.1943</v>
       </c>
       <c r="I8" s="1">
-        <v>71888.1168</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0161</v>
+        <v>51987.1943</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60901.4965</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.3974</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>62826.9009</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.06519999999999999</v>
+        <v>-0.0765</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>13.8476</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4424.8093</v>
       </c>
       <c r="F9" s="1">
         <v>722.1468</v>
       </c>
       <c r="G9" s="1">
-        <v>5210.6482</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>71780.8477</v>
+        <v>60955.2874</v>
       </c>
       <c r="I9" s="1">
-        <v>81888.1168</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7155</v>
+        <v>60955.2874</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70901.49649999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0236</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71780.8477</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0144</v>
+        <v>-0.0166</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>14.6185</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5146.9561</v>
       </c>
       <c r="F10" s="1">
         <v>684.0647</v>
       </c>
       <c r="G10" s="1">
-        <v>5894.7129</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>85725.0417</v>
+        <v>74850.6379</v>
       </c>
       <c r="I10" s="1">
-        <v>91888.1168</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.5882</v>
+        <v>74850.6379</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80901.49649999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.7183</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85725.0417</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0482</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.2363</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5831.0208</v>
       </c>
       <c r="F11" s="1">
         <v>656.3273</v>
       </c>
       <c r="G11" s="1">
-        <v>6551.0403</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>99296.0824</v>
+        <v>88382.53109999999</v>
       </c>
       <c r="I11" s="1">
-        <v>101888.1168</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.553</v>
+        <v>88382.53109999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90901.49649999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.5893</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99296.0824</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0373</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.9097</v>
       </c>
       <c r="E12" s="1">
+        <v>6487.3481</v>
+      </c>
+      <c r="F12" s="1">
+        <v>462.7126</v>
+      </c>
+      <c r="G12" s="1">
         <v>110000</v>
       </c>
-      <c r="F12" s="1">
-        <v>399.0204</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6950.0607</v>
-      </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>102676.5558</v>
       </c>
       <c r="I12" s="1">
-        <v>108236.4117</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.5734</v>
+        <v>102676.5558</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98263.1145</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.1469</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-6348.2949</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>3651.7051</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113651.7051</v>
+        <v>-7361.618</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0399</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.3909</v>
       </c>
       <c r="E13" s="1">
+        <v>6950.0607</v>
+      </c>
+      <c r="F13" s="1">
+        <v>821.1594</v>
+      </c>
+      <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="F13" s="1">
-        <v>887.3905999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7837.4513</v>
-      </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>106413.0737</v>
       </c>
       <c r="I13" s="1">
-        <v>121894.1518</v>
+        <v>2638.382</v>
       </c>
       <c r="J13" s="1">
-        <v>15.5528</v>
+        <v>109051.4557</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110901.4965</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.9569</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-13657.7401</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-6.035</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>119993.965</v>
+        <v>-12638.382</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0296</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>16.1095</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7771.22</v>
       </c>
       <c r="F14" s="1">
-        <v>-7837.4513</v>
+        <v>-7771.22</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124541.5724</v>
       </c>
       <c r="I14" s="1">
-        <v>121894.1518</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.5528</v>
+        <v>124541.5724</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110901.4965</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.2708</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125602.9939</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125596.9589</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125596.9589</v>
+        <v>124541.5724</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0338</v>
+        <v>0.0461</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>19.9668</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>500.8314</v>
       </c>
       <c r="G2" s="1">
-        <v>500.8314</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.164000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>19.9668</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.164000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.2441</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>500.8314</v>
       </c>
       <c r="F3" s="1">
         <v>548.1224</v>
       </c>
       <c r="G3" s="1">
-        <v>1048.9538</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19037.9868</v>
+        <v>9089.839099999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>19.0666</v>
+        <v>9089.839099999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>19.9668</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19037.9868</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0456</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>14.3227</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1048.9538</v>
       </c>
       <c r="F4" s="1">
         <v>698.1924</v>
       </c>
       <c r="G4" s="1">
-        <v>1747.1462</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>24894.0374</v>
+        <v>14945.9131</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1709</v>
+        <v>14945.9131</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>19.0666</v>
+      </c>
+      <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="1">
-        <v>1888.1168</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8111.8832</v>
+        <v>901.4965</v>
       </c>
       <c r="O4" s="1">
-        <v>1888.1168</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>26782.1543</v>
+        <v>-9098.503500000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.07770000000000001</v>
+        <v>-0.2171</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.7433</v>
       </c>
       <c r="E5" s="1">
+        <v>1747.1462</v>
+      </c>
+      <c r="F5" s="1">
+        <v>692.4530999999999</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>755.1223</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2502.2685</v>
-      </c>
       <c r="H5" s="1">
-        <v>39189.778</v>
+        <v>27363.2791</v>
       </c>
       <c r="I5" s="1">
-        <v>41888.1168</v>
+        <v>901.4965</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7401</v>
+        <v>28264.7756</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30901.4965</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6868</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11888.1168</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39189.778</v>
+        <v>-10901.4965</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0655</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.1934</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2439.5992</v>
       </c>
       <c r="F6" s="1">
         <v>617.5355</v>
       </c>
       <c r="G6" s="1">
-        <v>3119.804</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50258.1706</v>
+        <v>39300.48</v>
       </c>
       <c r="I6" s="1">
-        <v>51888.1168</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.6319</v>
+        <v>39300.48</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40901.4965</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7657</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50258.1706</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0217</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.2218</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3057.1348</v>
       </c>
       <c r="F7" s="1">
         <v>656.9525</v>
       </c>
       <c r="G7" s="1">
-        <v>3776.7565</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>57191.0464</v>
+        <v>46293.8863</v>
       </c>
       <c r="I7" s="1">
-        <v>61888.1168</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3866</v>
+        <v>46293.8863</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50901.4965</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.6501</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>57191.0464</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0509</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>14.0702</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3714.0873</v>
       </c>
       <c r="F8" s="1">
         <v>710.722</v>
       </c>
       <c r="G8" s="1">
-        <v>4487.4785</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>62812.5825</v>
+        <v>51987.1943</v>
       </c>
       <c r="I8" s="1">
-        <v>71888.1168</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0197</v>
+        <v>51987.1943</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60901.4965</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.3974</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>62812.5825</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.06519999999999999</v>
+        <v>-0.0765</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>13.8476</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4424.8093</v>
       </c>
       <c r="F9" s="1">
         <v>722.1468</v>
       </c>
       <c r="G9" s="1">
-        <v>5209.6253</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71766.7559</v>
+        <v>60955.2874</v>
       </c>
       <c r="I9" s="1">
-        <v>81888.1168</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7186</v>
+        <v>60955.2874</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70901.49649999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0236</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71766.7559</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0144</v>
+        <v>-0.0166</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>14.6185</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5146.9561</v>
       </c>
       <c r="F10" s="1">
         <v>684.0647</v>
       </c>
       <c r="G10" s="1">
-        <v>5893.69</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>85710.1654</v>
+        <v>74850.6379</v>
       </c>
       <c r="I10" s="1">
-        <v>91888.1168</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.5909</v>
+        <v>74850.6379</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80901.49649999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.7183</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85710.1654</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0482</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.2363</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5831.0208</v>
       </c>
       <c r="F11" s="1">
         <v>656.3273</v>
       </c>
       <c r="G11" s="1">
-        <v>6550.0173</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>99280.57739999999</v>
+        <v>88382.53109999999</v>
       </c>
       <c r="I11" s="1">
-        <v>101888.1168</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.5554</v>
+        <v>88382.53109999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90901.49649999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.5893</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99280.57739999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0373</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.9097</v>
       </c>
       <c r="E12" s="1">
+        <v>6487.3481</v>
+      </c>
+      <c r="F12" s="1">
+        <v>628.5474</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>576.4274</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7126.4447</v>
-      </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>102676.5558</v>
       </c>
       <c r="I12" s="1">
-        <v>111058.9034</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.5841</v>
+        <v>102676.5558</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100901.4965</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.5536</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-9170.786599999999</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>829.2134</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113620.8788</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0397</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.3909</v>
       </c>
       <c r="E13" s="1">
+        <v>7115.8955</v>
+      </c>
+      <c r="F13" s="1">
+        <v>649.7346</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>703.6114</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7830.0561</v>
-      </c>
       <c r="H13" s="1">
-        <v>119886.7725</v>
+        <v>108952.187</v>
       </c>
       <c r="I13" s="1">
-        <v>121888.1168</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.5667</v>
+        <v>108952.187</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110901.4965</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.585</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10829.2134</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>119886.7725</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0302</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>16.1095</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7765.63</v>
       </c>
       <c r="F14" s="1">
-        <v>-7830.0561</v>
+        <v>-7765.63</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124451.9871</v>
       </c>
       <c r="I14" s="1">
-        <v>121888.1168</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.5667</v>
+        <v>124451.9871</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110901.4965</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.2811</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125484.4796</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125484.4796</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125484.4796</v>
+        <v>124451.9871</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0339</v>
+        <v>0.0462</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>19.9668</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>500.8314</v>
       </c>
       <c r="G2" s="1">
-        <v>500.8314</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.164000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>19.9668</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.164000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.2441</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>500.8314</v>
       </c>
       <c r="F3" s="1">
         <v>548.1224</v>
       </c>
       <c r="G3" s="1">
-        <v>1048.9538</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19037.9868</v>
+        <v>9089.839099999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>19.0666</v>
+        <v>9089.839099999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>19.9668</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19037.9868</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0456</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>14.3227</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1048.9538</v>
       </c>
       <c r="F4" s="1">
         <v>698.1924</v>
       </c>
       <c r="G4" s="1">
-        <v>1747.1462</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>24894.0374</v>
+        <v>14945.9131</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1709</v>
+        <v>14945.9131</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>19.0666</v>
+      </c>
+      <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="1">
-        <v>1888.1168</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8111.8832</v>
+        <v>901.4965</v>
       </c>
       <c r="O4" s="1">
-        <v>1888.1168</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>26782.1543</v>
+        <v>-9098.503500000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.07770000000000001</v>
+        <v>-0.2171</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.7433</v>
       </c>
       <c r="E5" s="1">
+        <v>1747.1462</v>
+      </c>
+      <c r="F5" s="1">
+        <v>692.4530999999999</v>
+      </c>
+      <c r="G5" s="1">
         <v>40604.01</v>
       </c>
-      <c r="F5" s="1">
-        <v>755.1223</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2502.2685</v>
-      </c>
       <c r="H5" s="1">
-        <v>39189.778</v>
+        <v>27363.2791</v>
       </c>
       <c r="I5" s="1">
-        <v>41888.1168</v>
+        <v>901.4965</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7401</v>
+        <v>28264.7756</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30901.4965</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6868</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11888.1168</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39189.778</v>
+        <v>-10901.4965</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0655</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.1934</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2439.5992</v>
       </c>
       <c r="F6" s="1">
         <v>617.5355</v>
       </c>
       <c r="G6" s="1">
-        <v>3119.804</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50258.1706</v>
+        <v>39300.48</v>
       </c>
       <c r="I6" s="1">
-        <v>51888.1168</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.6319</v>
+        <v>39300.48</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40901.4965</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7657</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50258.1706</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0217</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.2218</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3057.1348</v>
       </c>
       <c r="F7" s="1">
         <v>656.9525</v>
       </c>
       <c r="G7" s="1">
-        <v>3776.7565</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>57191.0464</v>
+        <v>46293.8863</v>
       </c>
       <c r="I7" s="1">
-        <v>61888.1168</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3866</v>
+        <v>46293.8863</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50901.4965</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.6501</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>57191.0464</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0509</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>14.0702</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3714.0873</v>
       </c>
       <c r="F8" s="1">
         <v>710.722</v>
       </c>
       <c r="G8" s="1">
-        <v>4487.4785</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>62812.5825</v>
+        <v>51987.1943</v>
       </c>
       <c r="I8" s="1">
-        <v>71888.1168</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0197</v>
+        <v>51987.1943</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60901.4965</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.3974</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>62812.5825</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.06519999999999999</v>
+        <v>-0.0765</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>13.8476</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4424.8093</v>
       </c>
       <c r="F9" s="1">
         <v>722.1468</v>
       </c>
       <c r="G9" s="1">
-        <v>5209.6253</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>71766.7559</v>
+        <v>60955.2874</v>
       </c>
       <c r="I9" s="1">
-        <v>81888.1168</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7186</v>
+        <v>60955.2874</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70901.49649999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0236</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71766.7559</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0144</v>
+        <v>-0.0166</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>14.6185</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5146.9561</v>
       </c>
       <c r="F10" s="1">
         <v>684.0647</v>
       </c>
       <c r="G10" s="1">
-        <v>5893.69</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>85710.1654</v>
+        <v>74850.6379</v>
       </c>
       <c r="I10" s="1">
-        <v>91888.1168</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.5909</v>
+        <v>74850.6379</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80901.49649999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.7183</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85710.1654</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0482</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.2363</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5831.0208</v>
       </c>
       <c r="F11" s="1">
         <v>656.3273</v>
       </c>
       <c r="G11" s="1">
-        <v>6550.0173</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>99280.57739999999</v>
+        <v>88382.53109999999</v>
       </c>
       <c r="I11" s="1">
-        <v>101888.1168</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.5554</v>
+        <v>88382.53109999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90901.49649999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.5893</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99280.57739999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0373</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.9097</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6487.3481</v>
       </c>
       <c r="F12" s="1">
         <v>628.5474</v>
       </c>
       <c r="G12" s="1">
-        <v>7178.5647</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>113616.5789</v>
+        <v>102676.5558</v>
       </c>
       <c r="I12" s="1">
-        <v>111888.1168</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.5864</v>
+        <v>102676.5558</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100901.4965</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.5536</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113616.5789</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0397</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.3909</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>7115.8955</v>
       </c>
       <c r="F13" s="1">
         <v>649.7346</v>
       </c>
       <c r="G13" s="1">
-        <v>7828.2993</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>119859.8728</v>
+        <v>108952.187</v>
       </c>
       <c r="I13" s="1">
-        <v>121888.1168</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.5702</v>
+        <v>108952.187</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110901.4965</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.585</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119859.8728</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0304</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>16.1095</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7765.63</v>
       </c>
       <c r="F14" s="1">
-        <v>-7828.2993</v>
+        <v>-7765.63</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124451.9871</v>
       </c>
       <c r="I14" s="1">
-        <v>121888.1168</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.5702</v>
+        <v>124451.9871</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110901.4965</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.2811</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125456.324</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125456.324</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125456.324</v>
+        <v>124451.9871</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0339</v>
+        <v>0.0462</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>19.9668</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>500.8314</v>
       </c>
       <c r="G2" s="1">
-        <v>500.8314</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.164000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>19.9668</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.164000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.2441</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>500.8314</v>
       </c>
       <c r="F3" s="1">
         <v>548.1224</v>
       </c>
       <c r="G3" s="1">
-        <v>1048.9538</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19037.9868</v>
+        <v>9089.839099999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>19.0666</v>
+        <v>9089.839099999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>19.9668</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19037.9868</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0456</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>14.3227</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1048.9538</v>
       </c>
       <c r="F4" s="1">
         <v>698.1924</v>
       </c>
       <c r="G4" s="1">
-        <v>1747.1462</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>24894.0374</v>
+        <v>14945.9131</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1709</v>
+        <v>14945.9131</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>19.0666</v>
+      </c>
+      <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="1">
-        <v>1888.1168</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8111.8832</v>
+        <v>901.4965</v>
       </c>
       <c r="O4" s="1">
-        <v>1888.1168</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>26782.1543</v>
+        <v>-9098.503500000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.07770000000000001</v>
+        <v>-0.2171</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.7433</v>
       </c>
       <c r="E5" s="1">
+        <v>1747.1462</v>
+      </c>
+      <c r="F5" s="1">
+        <v>692.4530999999999</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>755.1223</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2502.2685</v>
-      </c>
       <c r="H5" s="1">
-        <v>39189.778</v>
+        <v>27363.2791</v>
       </c>
       <c r="I5" s="1">
-        <v>41888.1168</v>
+        <v>901.4965</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7401</v>
+        <v>28264.7756</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30901.4965</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6868</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11888.1168</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39189.778</v>
+        <v>-10901.4965</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0655</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.1934</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2439.5992</v>
       </c>
       <c r="F6" s="1">
         <v>617.5355</v>
       </c>
       <c r="G6" s="1">
-        <v>3119.804</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50258.1706</v>
+        <v>39300.48</v>
       </c>
       <c r="I6" s="1">
-        <v>51888.1168</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.6319</v>
+        <v>39300.48</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40901.4965</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7657</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50258.1706</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0217</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.2218</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3057.1348</v>
       </c>
       <c r="F7" s="1">
         <v>656.9525</v>
       </c>
       <c r="G7" s="1">
-        <v>3776.7565</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>57191.0464</v>
+        <v>46293.8863</v>
       </c>
       <c r="I7" s="1">
-        <v>61888.1168</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3866</v>
+        <v>46293.8863</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50901.4965</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.6501</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>57191.0464</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0509</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>14.0702</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3714.0873</v>
       </c>
       <c r="F8" s="1">
         <v>710.722</v>
       </c>
       <c r="G8" s="1">
-        <v>4487.4785</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>62812.5825</v>
+        <v>51987.1943</v>
       </c>
       <c r="I8" s="1">
-        <v>71888.1168</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0197</v>
+        <v>51987.1943</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60901.4965</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.3974</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>62812.5825</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.06519999999999999</v>
+        <v>-0.0765</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>13.8476</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4424.8093</v>
       </c>
       <c r="F9" s="1">
         <v>722.1468</v>
       </c>
       <c r="G9" s="1">
-        <v>5209.6253</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71766.7559</v>
+        <v>60955.2874</v>
       </c>
       <c r="I9" s="1">
-        <v>81888.1168</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7186</v>
+        <v>60955.2874</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70901.49649999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0236</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71766.7559</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0144</v>
+        <v>-0.0166</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>14.6185</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5146.9561</v>
       </c>
       <c r="F10" s="1">
         <v>684.0647</v>
       </c>
       <c r="G10" s="1">
-        <v>5893.69</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85710.1654</v>
+        <v>74850.6379</v>
       </c>
       <c r="I10" s="1">
-        <v>91888.1168</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.5909</v>
+        <v>74850.6379</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80901.49649999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.7183</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85710.1654</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0482</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.2363</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5831.0208</v>
       </c>
       <c r="F11" s="1">
         <v>656.3273</v>
       </c>
       <c r="G11" s="1">
-        <v>6550.0173</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>99280.57739999999</v>
+        <v>88382.53109999999</v>
       </c>
       <c r="I11" s="1">
-        <v>101888.1168</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.5554</v>
+        <v>88382.53109999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90901.49649999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.5893</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99280.57739999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0373</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.9097</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6487.3481</v>
       </c>
       <c r="F12" s="1">
         <v>628.5474</v>
       </c>
       <c r="G12" s="1">
-        <v>7178.5647</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>113616.5789</v>
+        <v>102676.5558</v>
       </c>
       <c r="I12" s="1">
-        <v>111888.1168</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.5864</v>
+        <v>102676.5558</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100901.4965</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.5536</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113616.5789</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0397</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.3909</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>7115.8955</v>
       </c>
       <c r="F13" s="1">
         <v>649.7346</v>
       </c>
       <c r="G13" s="1">
-        <v>7828.2993</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>119859.8728</v>
+        <v>108952.187</v>
       </c>
       <c r="I13" s="1">
-        <v>121888.1168</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.5702</v>
+        <v>108952.187</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110901.4965</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.585</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119859.8728</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0304</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>16.1095</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7765.63</v>
       </c>
       <c r="F14" s="1">
-        <v>-7828.2993</v>
+        <v>-7765.63</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124451.9871</v>
       </c>
       <c r="I14" s="1">
-        <v>121888.1168</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.5702</v>
+        <v>124451.9871</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110901.4965</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.2811</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125456.324</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125456.324</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125456.324</v>
+        <v>124451.9871</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0339</v>
+        <v>0.0462</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.0661</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.56</v>
+        <v>14.2766</v>
       </c>
       <c r="D3" s="1">
-        <v>15.5528</v>
+        <v>14.2708</v>
       </c>
       <c r="E3" s="1">
-        <v>15.5667</v>
+        <v>14.2811</v>
       </c>
       <c r="F3" s="1">
-        <v>15.5702</v>
+        <v>14.2811</v>
       </c>
       <c r="G3" s="1">
-        <v>15.5702</v>
+        <v>14.2811</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1687</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1043</v>
+        <v>-0.148</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1043</v>
+        <v>-0.148</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1054</v>
+        <v>-0.1488</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1057</v>
+        <v>-0.1488</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1057</v>
+        <v>-0.1488</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2856</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1611</v>
+        <v>0.3024</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1622</v>
+        <v>0.3028</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1623</v>
+        <v>0.3029</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1623</v>
+        <v>0.3029</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1623</v>
+        <v>0.3029</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.6618000000000001</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.7738</v>
+        <v>-0.5568</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.7684</v>
+        <v>-0.5558999999999999</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.7746</v>
+        <v>-0.5583</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.7761</v>
+        <v>-0.5583</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.7761</v>
+        <v>-0.5583</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.08740000000000001</v>
+        <v>-0.0919</v>
       </c>
       <c r="D7" s="3">
-        <v>0.08790000000000001</v>
+        <v>0.0709</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0858</v>
+        <v>0.0693</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0852</v>
+        <v>0.0693</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0852</v>
+        <v>0.0693</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1888.1168</v>
+        <v>901.4965</v>
       </c>
       <c r="D8" s="1">
-        <v>1888.1168</v>
+        <v>901.4965</v>
       </c>
       <c r="E8" s="1">
-        <v>1888.1168</v>
+        <v>901.4965</v>
       </c>
       <c r="F8" s="1">
-        <v>1888.1168</v>
+        <v>901.4965</v>
       </c>
       <c r="G8" s="1">
-        <v>1888.1168</v>
+        <v>901.4965</v>
       </c>
     </row>
   </sheetData>
